--- a/data/Sample log.xlsx
+++ b/data/Sample log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yig319\Dropbox (LU Student)\characterization\afm\afm_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://drexel0-my.sharepoint.com/personal/lw627_drexel_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5563EE-287C-41C5-B096-F9BBBFD0642E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ACFF2C7-B525-4D7D-966B-FA3B722DC3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="16680" tabRatio="910" firstSheet="4" activeTab="4" xr2:uid="{1FBAE36E-3710-4BAB-8D51-440E120DEDA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="910" firstSheet="4" activeTab="4" xr2:uid="{1FBAE36E-3710-4BAB-8D51-440E120DEDA8}"/>
   </bookViews>
   <sheets>
     <sheet name="BTO" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="586">
   <si>
     <t>Sample name</t>
   </si>
@@ -915,7 +915,19 @@
     <t>LYW134</t>
   </si>
   <si>
-    <t>Target polished; XRD diffused</t>
+    <r>
+      <t xml:space="preserve">Target polished; XRD diffused; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Raja CPW</t>
+    </r>
   </si>
   <si>
     <t>LYW135</t>
@@ -948,6 +960,9 @@
     <t>3.143 nm/min</t>
   </si>
   <si>
+    <t>Raja IDC done</t>
+  </si>
+  <si>
     <t>LYW138</t>
   </si>
   <si>
@@ -1020,6 +1035,9 @@
     <t>230; 400; 143 (LYW145_0034)</t>
   </si>
   <si>
+    <t>Raja IDC</t>
+  </si>
+  <si>
     <t>LYW146</t>
   </si>
   <si>
@@ -1038,6 +1056,9 @@
     <t>142 (LYW146_0010)</t>
   </si>
   <si>
+    <t>Raja IDC done, wire bonded</t>
+  </si>
+  <si>
     <t>LYW147</t>
   </si>
   <si>
@@ -1116,6 +1137,18 @@
     <t>LYW155</t>
   </si>
   <si>
+    <t>LYW156</t>
+  </si>
+  <si>
+    <t>sent to Prof. Alu at CUNNY</t>
+  </si>
+  <si>
+    <t>LYW159</t>
+  </si>
+  <si>
+    <t>BTO_C @4</t>
+  </si>
+  <si>
     <t>LYW036</t>
   </si>
   <si>
@@ -1164,9 +1197,20 @@
     <t>LYW084</t>
   </si>
   <si>
+    <t>Growth</t>
+  </si>
+  <si>
     <t>Mask (Height*Width)</t>
   </si>
   <si>
+    <t>Growth rate
+(Å/pulse)</t>
+  </si>
+  <si>
+    <t>Growth rate
+(nm/min)</t>
+  </si>
+  <si>
     <t>Surface roughness (pm)</t>
   </si>
   <si>
@@ -1176,60 +1220,42 @@
     <t>SRO_B</t>
   </si>
   <si>
-    <t>2.4 nm/min</t>
-  </si>
-  <si>
     <t>LYW027</t>
   </si>
   <si>
-    <t>1.2 nm/min</t>
-  </si>
-  <si>
     <t>LYW051</t>
   </si>
   <si>
     <t>SRO_C</t>
   </si>
   <si>
-    <t>1.58 nm/min</t>
-  </si>
-  <si>
     <t>NSO(110) irregular cut</t>
   </si>
   <si>
-    <t>1.215 nm/min</t>
-  </si>
-  <si>
     <t>17.2 (not sure if accurate)</t>
   </si>
   <si>
     <t>LYW111</t>
   </si>
   <si>
-    <t>1.152 nm/min</t>
-  </si>
-  <si>
-    <t>1.065 nm/min</t>
-  </si>
-  <si>
-    <t>1.35 nm/min</t>
-  </si>
-  <si>
     <t xml:space="preserve">NSO(110) </t>
   </si>
   <si>
     <t>700 (heater O)</t>
   </si>
   <si>
+    <t>LYW_YCG045</t>
+  </si>
+  <si>
     <t>STO</t>
   </si>
   <si>
-    <t>1.6 nm/min</t>
-  </si>
-  <si>
     <t>target polished; 5000 shots pre-ablation</t>
   </si>
   <si>
+    <t>LYW_YCG046</t>
+  </si>
+  <si>
     <t>STO s4</t>
   </si>
   <si>
@@ -1239,34 +1265,121 @@
     <t>2 to 1.73</t>
   </si>
   <si>
-    <t>1.8 nm/min</t>
-  </si>
-  <si>
     <t>Laser gas new fill to 3200 mbar; no pre-ablation</t>
   </si>
   <si>
-    <t>6.7 nm/min</t>
+    <t>LYW_YCG047</t>
+  </si>
+  <si>
+    <t>LYW_YCG048</t>
+  </si>
+  <si>
+    <t>LYW_YCG049</t>
+  </si>
+  <si>
+    <t>LYW_YCG050</t>
+  </si>
+  <si>
+    <t>LYW_YCG051</t>
   </si>
   <si>
     <t>3 STO pieces</t>
   </si>
   <si>
+    <t>LYW_YCG052</t>
+  </si>
+  <si>
     <t>2 STO pieces</t>
   </si>
   <si>
     <t>650 (heater O)</t>
   </si>
   <si>
-    <t>SRO64/65</t>
-  </si>
-  <si>
-    <t>17/15.7</t>
-  </si>
-  <si>
-    <t>SRO63</t>
-  </si>
-  <si>
-    <t>22.5/20.3</t>
+    <t>LYW_YCG053</t>
+  </si>
+  <si>
+    <t>LYW_YCG054</t>
+  </si>
+  <si>
+    <t>1 irregular STO</t>
+  </si>
+  <si>
+    <t>800 (heater O)</t>
+  </si>
+  <si>
+    <t>LYW_YCG055</t>
+  </si>
+  <si>
+    <t>600 (heater O)</t>
+  </si>
+  <si>
+    <t>LYW_YCG056</t>
+  </si>
+  <si>
+    <t>LYW_YCG057</t>
+  </si>
+  <si>
+    <t>LYW_YCG058</t>
+  </si>
+  <si>
+    <t>LYW_YCG059</t>
+  </si>
+  <si>
+    <t>LYW_YCG060</t>
+  </si>
+  <si>
+    <t>LYW_YCG061</t>
+  </si>
+  <si>
+    <t>LYW_YCG062</t>
+  </si>
+  <si>
+    <t>LYW_YCG063</t>
+  </si>
+  <si>
+    <t>SRO Praxair @2</t>
+  </si>
+  <si>
+    <t>target contaminated by previous growths</t>
+  </si>
+  <si>
+    <t>LYW_YCG064</t>
+  </si>
+  <si>
+    <t>SRO Praxair @4</t>
+  </si>
+  <si>
+    <t>5000 pulses pre-ablation</t>
+  </si>
+  <si>
+    <t>LYW_YCG065</t>
+  </si>
+  <si>
+    <t>700 (heater N)</t>
+  </si>
+  <si>
+    <t>LYW_YCG066</t>
+  </si>
+  <si>
+    <t>LYW_YCG067</t>
+  </si>
+  <si>
+    <t>no pre-ablation</t>
+  </si>
+  <si>
+    <t>LYW_YCG068</t>
+  </si>
+  <si>
+    <t>LYW_YCG069</t>
+  </si>
+  <si>
+    <t>LYW157</t>
+  </si>
+  <si>
+    <t>1 irregular NSO</t>
+  </si>
+  <si>
+    <t>LYW158</t>
   </si>
   <si>
     <t>Pressure (mbar)</t>
@@ -1760,36 +1873,6 @@
   <si>
     <t>Pa</t>
   </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>YG045</t>
-  </si>
-  <si>
-    <t>YG046</t>
-  </si>
-  <si>
-    <t>YG047</t>
-  </si>
-  <si>
-    <t>YG048</t>
-  </si>
-  <si>
-    <t>YG049</t>
-  </si>
-  <si>
-    <t>YG050</t>
-  </si>
-  <si>
-    <t>YG051</t>
-  </si>
-  <si>
-    <t>YG052</t>
-  </si>
-  <si>
-    <t>YG053</t>
-  </si>
 </sst>
 </file>
 
@@ -1799,7 +1882,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,8 +1931,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2096,6 +2185,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -2317,7 +2442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2568,6 +2693,27 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2647,9 +2793,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2687,7 +2833,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2793,7 +2939,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2935,7 +3081,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2943,42 +3089,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57692EDF-9FDC-4BEF-820C-C9064119FD2E}">
-  <dimension ref="A1:Y134"/>
+  <dimension ref="A1:Y136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134:XFD134"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="2"/>
     <col min="7" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="2"/>
-    <col min="16" max="16" width="11.109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="2" customWidth="1"/>
-    <col min="19" max="20" width="10.6640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="29.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="21.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="2"/>
+    <col min="16" max="16" width="11.140625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="12.85546875" style="2" customWidth="1"/>
+    <col min="19" max="20" width="10.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="29.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" style="2" customWidth="1"/>
     <col min="24" max="24" width="14" style="2" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="8.6640625" style="2"/>
+    <col min="25" max="25" width="19.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="60.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3027,10 +3172,10 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="92"/>
+      <c r="R1" s="99"/>
       <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
@@ -3047,7 +3192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="29.1">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3097,12 +3242,12 @@
       <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="92" t="s">
+      <c r="Q2" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="92"/>
-    </row>
-    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" ht="29.1">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -3159,7 +3304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="29.1">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -3216,7 +3361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="29.1">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -3273,7 +3418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="29.1">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -3329,7 +3474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="29.1">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -3386,7 +3531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="29.1">
       <c r="A8" s="13" t="s">
         <v>43</v>
       </c>
@@ -3442,7 +3587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="29.1">
       <c r="A9" s="13" t="s">
         <v>46</v>
       </c>
@@ -3498,7 +3643,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="29.1">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -3554,7 +3699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="29.1">
       <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
@@ -3610,7 +3755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="29.1">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -3666,7 +3811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="29.1">
       <c r="A13" s="13" t="s">
         <v>58</v>
       </c>
@@ -3722,7 +3867,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="29.1">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3778,7 +3923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="29.1">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -3834,7 +3979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="29.1">
       <c r="A16" s="2" t="s">
         <v>65</v>
       </c>
@@ -3890,7 +4035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="29.1">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -3946,7 +4091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="29.1">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -4002,7 +4147,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="29.1">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -4051,12 +4196,12 @@
       <c r="P19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="92" t="s">
+      <c r="Q19" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="92"/>
-    </row>
-    <row r="20" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R19" s="99"/>
+    </row>
+    <row r="20" spans="1:21" ht="29.1">
       <c r="A20" s="2" t="s">
         <v>72</v>
       </c>
@@ -4112,7 +4257,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="29.1">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -4168,7 +4313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="29.1">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -4224,7 +4369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="29.1">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -4280,7 +4425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="29.1">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -4336,7 +4481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="29.1">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -4392,7 +4537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="29.1">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -4448,7 +4593,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="29.1">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -4507,7 +4652,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="29.1">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -4563,7 +4708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="29.1">
       <c r="A29" s="2" t="s">
         <v>97</v>
       </c>
@@ -4619,7 +4764,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="29.1">
       <c r="A30" s="2" t="s">
         <v>100</v>
       </c>
@@ -4675,7 +4820,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="29.1">
       <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
@@ -4728,7 +4873,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="29.1">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -4787,7 +4932,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="29.1">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -4846,7 +4991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="29.1">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -4896,7 +5041,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="29.1">
       <c r="A35" s="69" t="s">
         <v>117</v>
       </c>
@@ -4952,7 +5097,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="29.1">
       <c r="A36" s="2" t="s">
         <v>121</v>
       </c>
@@ -5011,7 +5156,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="29.1">
       <c r="A37" s="14" t="s">
         <v>126</v>
       </c>
@@ -5073,7 +5218,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="29.1">
       <c r="A38" s="14" t="s">
         <v>129</v>
       </c>
@@ -5132,7 +5277,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="29.1">
       <c r="A39" s="2" t="s">
         <v>134</v>
       </c>
@@ -5191,7 +5336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="29.1">
       <c r="A40" s="2" t="s">
         <v>135</v>
       </c>
@@ -5250,7 +5395,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="29.1">
       <c r="A41" s="2" t="s">
         <v>139</v>
       </c>
@@ -5312,7 +5457,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="29.1">
       <c r="A42" s="14" t="s">
         <v>145</v>
       </c>
@@ -5374,7 +5519,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="29.1">
       <c r="A43" s="2" t="s">
         <v>150</v>
       </c>
@@ -5436,7 +5581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="29.1">
       <c r="A44" s="2" t="s">
         <v>155</v>
       </c>
@@ -5498,7 +5643,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="29.1">
       <c r="A45" s="2" t="s">
         <v>161</v>
       </c>
@@ -5557,7 +5702,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="29.1">
       <c r="A46" s="2" t="s">
         <v>167</v>
       </c>
@@ -5616,7 +5761,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="29.1">
       <c r="A47" s="2" t="s">
         <v>170</v>
       </c>
@@ -5675,23 +5820,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="95" t="s">
+    <row r="48" spans="1:23" ht="14.45">
+      <c r="A48" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="93">
+      <c r="B48" s="100">
         <v>44913</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E48" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="92" t="s">
+      <c r="E48" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="2">
@@ -5703,13 +5848,13 @@
       <c r="I48" s="2">
         <v>44.67</v>
       </c>
-      <c r="J48" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="K48" s="92">
-        <v>6.1</v>
-      </c>
-      <c r="L48" s="94">
+      <c r="J48" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="99">
+        <v>6.1</v>
+      </c>
+      <c r="L48" s="101">
         <v>2.2799999999999998</v>
       </c>
       <c r="M48" s="2">
@@ -5722,15 +5867,15 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="95"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="92"/>
+    <row r="49" spans="1:24" ht="14.45">
+      <c r="A49" s="102"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
       <c r="G49" s="2">
         <v>100</v>
       </c>
@@ -5740,9 +5885,9 @@
       <c r="I49" s="2">
         <v>42.4</v>
       </c>
-      <c r="J49" s="94"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="94"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="101"/>
       <c r="M49" s="2">
         <v>1.86</v>
       </c>
@@ -5753,23 +5898,23 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="95" t="s">
+    <row r="50" spans="1:24" ht="14.45">
+      <c r="A50" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="93">
+      <c r="B50" s="100">
         <v>44915</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D50" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E50" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="92" t="s">
+      <c r="E50" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G50" s="2">
@@ -5781,13 +5926,13 @@
       <c r="I50" s="2">
         <v>42.2</v>
       </c>
-      <c r="J50" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" s="92">
-        <v>6.1</v>
-      </c>
-      <c r="L50" s="94">
+      <c r="J50" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="99">
+        <v>6.1</v>
+      </c>
+      <c r="L50" s="101">
         <v>2.2799999999999998</v>
       </c>
       <c r="M50" s="2">
@@ -5800,15 +5945,15 @@
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="95"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="92"/>
+    <row r="51" spans="1:24" ht="14.45">
+      <c r="A51" s="102"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="99"/>
       <c r="D51" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
       <c r="G51" s="2">
         <v>100</v>
       </c>
@@ -5818,9 +5963,9 @@
       <c r="I51" s="2">
         <v>42.2</v>
       </c>
-      <c r="J51" s="94"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="94"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="101"/>
       <c r="M51" s="2">
         <v>1.85</v>
       </c>
@@ -5831,7 +5976,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" ht="29.1">
       <c r="A52" s="2" t="s">
         <v>176</v>
       </c>
@@ -5890,7 +6035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" ht="29.1">
       <c r="A53" s="2" t="s">
         <v>179</v>
       </c>
@@ -5943,7 +6088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" ht="29.1">
       <c r="A54" s="58" t="s">
         <v>181</v>
       </c>
@@ -6002,7 +6147,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" ht="29.1">
       <c r="A55" s="2" t="s">
         <v>183</v>
       </c>
@@ -6052,7 +6197,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" ht="29.1">
       <c r="A56" s="58" t="s">
         <v>185</v>
       </c>
@@ -6111,7 +6256,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" ht="29.1">
       <c r="A57" s="2" t="s">
         <v>189</v>
       </c>
@@ -6167,7 +6312,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" ht="29.1">
       <c r="A58" s="2" t="s">
         <v>191</v>
       </c>
@@ -6223,7 +6368,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" ht="29.1">
       <c r="A59" s="2" t="s">
         <v>194</v>
       </c>
@@ -6279,23 +6424,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="92" t="s">
+    <row r="60" spans="1:24" ht="22.5" customHeight="1">
+      <c r="A60" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="B60" s="93">
+      <c r="B60" s="100">
         <v>44611</v>
       </c>
-      <c r="C60" s="92" t="s">
+      <c r="C60" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D60" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="E60" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="92" t="s">
+      <c r="E60" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G60" s="2">
@@ -6304,19 +6449,19 @@
       <c r="H60" s="2">
         <v>780</v>
       </c>
-      <c r="I60" s="92">
+      <c r="I60" s="99">
         <v>44.67</v>
       </c>
-      <c r="J60" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="92">
-        <v>6.1</v>
-      </c>
-      <c r="L60" s="94">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="M60" s="92">
+      <c r="J60" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="99">
+        <v>6.1</v>
+      </c>
+      <c r="L60" s="101">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M60" s="99">
         <v>1.96</v>
       </c>
       <c r="N60" s="2">
@@ -6335,26 +6480,26 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="92"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="92"/>
+    <row r="61" spans="1:24" ht="18" customHeight="1">
+      <c r="A61" s="99"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="99"/>
       <c r="D61" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
       <c r="G61" s="2">
         <v>100</v>
       </c>
       <c r="H61" s="2">
         <v>650</v>
       </c>
-      <c r="I61" s="92"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="92"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="99"/>
       <c r="N61" s="59">
         <v>3</v>
       </c>
@@ -6362,7 +6507,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" ht="35.25" customHeight="1">
       <c r="A62" s="58" t="s">
         <v>200</v>
       </c>
@@ -6424,7 +6569,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" ht="29.1">
       <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
@@ -6477,7 +6622,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" ht="29.1">
       <c r="A64" s="2" t="s">
         <v>204</v>
       </c>
@@ -6545,7 +6690,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="50.25" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>209</v>
       </c>
@@ -6601,7 +6746,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" ht="29.1">
       <c r="A66" s="2" t="s">
         <v>211</v>
       </c>
@@ -6660,7 +6805,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" ht="29.1">
       <c r="A67" s="2" t="s">
         <v>214</v>
       </c>
@@ -6716,7 +6861,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" ht="29.1">
       <c r="A68" s="2" t="s">
         <v>216</v>
       </c>
@@ -6769,7 +6914,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" ht="47.25" customHeight="1">
       <c r="A69" s="10" t="s">
         <v>217</v>
       </c>
@@ -6822,7 +6967,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" ht="37.5" customHeight="1">
       <c r="A70" s="10" t="s">
         <v>218</v>
       </c>
@@ -6875,7 +7020,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" ht="42.75" customHeight="1">
       <c r="A71" s="10" t="s">
         <v>219</v>
       </c>
@@ -6940,7 +7085,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" ht="29.1">
       <c r="A72" s="10" t="s">
         <v>222</v>
       </c>
@@ -6999,7 +7144,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" ht="29.1">
       <c r="A73" s="2" t="s">
         <v>223</v>
       </c>
@@ -7064,7 +7209,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" ht="29.1">
       <c r="A74" s="2" t="s">
         <v>226</v>
       </c>
@@ -7123,7 +7268,7 @@
         <v>60.94</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" ht="29.1">
       <c r="A75" s="2" t="s">
         <v>227</v>
       </c>
@@ -7182,7 +7327,7 @@
         <v>122.95</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" ht="29.1">
       <c r="A76" s="2" t="s">
         <v>228</v>
       </c>
@@ -7232,23 +7377,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="92" t="s">
+    <row r="77" spans="1:25" ht="29.1">
+      <c r="A77" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="B77" s="93">
+      <c r="B77" s="100">
         <v>45002</v>
       </c>
-      <c r="C77" s="92" t="s">
+      <c r="C77" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E77" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="92" t="s">
+      <c r="E77" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G77" s="2">
@@ -7263,7 +7408,7 @@
       <c r="J77" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K77" s="92">
+      <c r="K77" s="99">
         <v>6.1</v>
       </c>
       <c r="L77" s="27">
@@ -7280,15 +7425,15 @@
       </c>
       <c r="U77" s="18"/>
     </row>
-    <row r="78" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="92"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="92"/>
+    <row r="78" spans="1:25" ht="29.1">
+      <c r="A78" s="99"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="99"/>
       <c r="D78" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
       <c r="G78" s="2">
         <v>110</v>
       </c>
@@ -7301,7 +7446,7 @@
       <c r="J78" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="92"/>
+      <c r="K78" s="99"/>
       <c r="L78" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -7318,23 +7463,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="92" t="s">
+    <row r="79" spans="1:25" ht="29.1">
+      <c r="A79" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="93">
+      <c r="B79" s="100">
         <v>45008</v>
       </c>
-      <c r="C79" s="92" t="s">
+      <c r="C79" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E79" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="92" t="s">
+      <c r="E79" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G79" s="2">
@@ -7349,7 +7494,7 @@
       <c r="J79" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K79" s="92">
+      <c r="K79" s="99">
         <v>6.1</v>
       </c>
       <c r="L79" s="27">
@@ -7364,22 +7509,22 @@
       <c r="O79" s="2">
         <v>5000</v>
       </c>
-      <c r="W79" s="92" t="s">
+      <c r="W79" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="X79" s="92" t="s">
+      <c r="X79" s="99" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="92"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="92"/>
+    <row r="80" spans="1:25" ht="29.1">
+      <c r="A80" s="99"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="99"/>
       <c r="D80" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="92"/>
-      <c r="F80" s="92"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
       <c r="G80" s="2">
         <v>110</v>
       </c>
@@ -7392,7 +7537,7 @@
       <c r="J80" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K80" s="92"/>
+      <c r="K80" s="99"/>
       <c r="L80" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -7405,26 +7550,26 @@
       <c r="O80" s="2">
         <v>4000</v>
       </c>
-      <c r="W80" s="92"/>
-      <c r="X80" s="92"/>
-    </row>
-    <row r="81" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="92" t="s">
+      <c r="W80" s="99"/>
+      <c r="X80" s="99"/>
+    </row>
+    <row r="81" spans="1:21" ht="29.1">
+      <c r="A81" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="B81" s="93">
+      <c r="B81" s="100">
         <v>45009</v>
       </c>
-      <c r="C81" s="92" t="s">
+      <c r="C81" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E81" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F81" s="92" t="s">
+      <c r="E81" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G81" s="61">
@@ -7439,7 +7584,7 @@
       <c r="J81" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K81" s="92">
+      <c r="K81" s="99">
         <v>6.1</v>
       </c>
       <c r="L81" s="27">
@@ -7455,15 +7600,15 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="92"/>
-      <c r="B82" s="93"/>
-      <c r="C82" s="92"/>
+    <row r="82" spans="1:21" ht="29.1">
+      <c r="A82" s="99"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="99"/>
       <c r="D82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E82" s="92"/>
-      <c r="F82" s="92"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
       <c r="G82" s="65">
         <v>110</v>
       </c>
@@ -7476,7 +7621,7 @@
       <c r="J82" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K82" s="92"/>
+      <c r="K82" s="99"/>
       <c r="L82" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -7490,23 +7635,23 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="92" t="s">
+    <row r="83" spans="1:21" ht="29.1">
+      <c r="A83" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="B83" s="93">
+      <c r="B83" s="100">
         <v>45010</v>
       </c>
-      <c r="C83" s="92" t="s">
+      <c r="C83" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E83" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="92" t="s">
+      <c r="E83" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G83" s="61">
@@ -7521,7 +7666,7 @@
       <c r="J83" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K83" s="92">
+      <c r="K83" s="99">
         <v>6.1</v>
       </c>
       <c r="L83" s="27">
@@ -7537,15 +7682,15 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="92"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="92"/>
+    <row r="84" spans="1:21" ht="29.1">
+      <c r="A84" s="99"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="99"/>
       <c r="D84" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E84" s="92"/>
-      <c r="F84" s="92"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
       <c r="G84" s="63">
         <v>110</v>
       </c>
@@ -7558,7 +7703,7 @@
       <c r="J84" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K84" s="92"/>
+      <c r="K84" s="99"/>
       <c r="L84" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -7572,23 +7717,23 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="92" t="s">
+    <row r="85" spans="1:21" ht="29.1">
+      <c r="A85" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="B85" s="93">
+      <c r="B85" s="100">
         <v>45011</v>
       </c>
-      <c r="C85" s="92" t="s">
+      <c r="C85" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E85" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="92" t="s">
+      <c r="E85" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G85" s="65">
@@ -7603,7 +7748,7 @@
       <c r="J85" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K85" s="92">
+      <c r="K85" s="99">
         <v>6.1</v>
       </c>
       <c r="L85" s="27">
@@ -7620,15 +7765,15 @@
       </c>
       <c r="U85" s="18"/>
     </row>
-    <row r="86" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="92"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="92"/>
+    <row r="86" spans="1:21" ht="29.1">
+      <c r="A86" s="99"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="99"/>
       <c r="D86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
       <c r="G86" s="65">
         <v>110</v>
       </c>
@@ -7641,7 +7786,7 @@
       <c r="J86" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K86" s="92"/>
+      <c r="K86" s="99"/>
       <c r="L86" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -7658,23 +7803,23 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="92" t="s">
+    <row r="87" spans="1:21" ht="29.1">
+      <c r="A87" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="93">
+      <c r="B87" s="100">
         <v>45013</v>
       </c>
-      <c r="C87" s="92" t="s">
+      <c r="C87" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E87" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="92" t="s">
+      <c r="E87" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="61">
@@ -7689,7 +7834,7 @@
       <c r="J87" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K87" s="92">
+      <c r="K87" s="99">
         <v>6.1</v>
       </c>
       <c r="L87" s="27">
@@ -7705,15 +7850,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="92"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="92"/>
+    <row r="88" spans="1:21" ht="29.1">
+      <c r="A88" s="99"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="99"/>
       <c r="D88" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="92"/>
-      <c r="F88" s="92"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
       <c r="G88" s="65">
         <v>110</v>
       </c>
@@ -7726,7 +7871,7 @@
       <c r="J88" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K88" s="92"/>
+      <c r="K88" s="99"/>
       <c r="L88" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -7740,23 +7885,23 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="92" t="s">
+    <row r="89" spans="1:21" ht="29.1">
+      <c r="A89" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="B89" s="93">
+      <c r="B89" s="100">
         <v>45015</v>
       </c>
-      <c r="C89" s="92" t="s">
+      <c r="C89" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E89" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="92" t="s">
+      <c r="E89" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="61">
@@ -7771,7 +7916,7 @@
       <c r="J89" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K89" s="92">
+      <c r="K89" s="99">
         <v>6.1</v>
       </c>
       <c r="L89" s="27">
@@ -7787,15 +7932,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="92"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="92"/>
+    <row r="90" spans="1:21" ht="29.1">
+      <c r="A90" s="99"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="99"/>
       <c r="D90" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E90" s="92"/>
-      <c r="F90" s="92"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
       <c r="G90" s="63">
         <v>110</v>
       </c>
@@ -7808,7 +7953,7 @@
       <c r="J90" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K90" s="92"/>
+      <c r="K90" s="99"/>
       <c r="L90" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -7822,23 +7967,23 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="92" t="s">
+    <row r="91" spans="1:21" ht="29.1">
+      <c r="A91" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="B91" s="93">
+      <c r="B91" s="100">
         <v>45016</v>
       </c>
-      <c r="C91" s="92" t="s">
+      <c r="C91" s="99" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E91" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" s="92" t="s">
+      <c r="E91" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="65">
@@ -7853,7 +7998,7 @@
       <c r="J91" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K91" s="92">
+      <c r="K91" s="99">
         <v>6.1</v>
       </c>
       <c r="L91" s="27">
@@ -7869,15 +8014,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="92"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="92"/>
+    <row r="92" spans="1:21" ht="29.1">
+      <c r="A92" s="99"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="99"/>
       <c r="D92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
       <c r="G92" s="65">
         <v>110</v>
       </c>
@@ -7890,7 +8035,7 @@
       <c r="J92" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K92" s="92"/>
+      <c r="K92" s="99"/>
       <c r="L92" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -7904,23 +8049,23 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="92" t="s">
+    <row r="93" spans="1:21" ht="29.1">
+      <c r="A93" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="B93" s="93">
+      <c r="B93" s="100">
         <v>45017</v>
       </c>
-      <c r="C93" s="92" t="s">
+      <c r="C93" s="99" t="s">
         <v>244</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E93" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="92" t="s">
+      <c r="E93" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="61">
@@ -7935,7 +8080,7 @@
       <c r="J93" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K93" s="92">
+      <c r="K93" s="99">
         <v>6.1</v>
       </c>
       <c r="L93" s="27">
@@ -7951,15 +8096,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="92"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="92"/>
+    <row r="94" spans="1:21" ht="29.1">
+      <c r="A94" s="99"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="99"/>
       <c r="D94" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
       <c r="G94" s="65">
         <v>110</v>
       </c>
@@ -7972,7 +8117,7 @@
       <c r="J94" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K94" s="92"/>
+      <c r="K94" s="99"/>
       <c r="L94" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -7986,23 +8131,23 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="92" t="s">
+    <row r="95" spans="1:21" ht="29.1">
+      <c r="A95" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="B95" s="93">
+      <c r="B95" s="100">
         <v>45018</v>
       </c>
-      <c r="C95" s="92" t="s">
+      <c r="C95" s="99" t="s">
         <v>244</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E95" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="92" t="s">
+      <c r="E95" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="99" t="s">
         <v>26</v>
       </c>
       <c r="G95" s="61">
@@ -8017,7 +8162,7 @@
       <c r="J95" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="K95" s="92">
+      <c r="K95" s="99">
         <v>6.1</v>
       </c>
       <c r="L95" s="27">
@@ -8033,15 +8178,15 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="92"/>
-      <c r="B96" s="93"/>
-      <c r="C96" s="92"/>
+    <row r="96" spans="1:21" ht="29.1">
+      <c r="A96" s="99"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="99"/>
       <c r="D96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
       <c r="G96" s="63">
         <v>110</v>
       </c>
@@ -8054,7 +8199,7 @@
       <c r="J96" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K96" s="92"/>
+      <c r="K96" s="99"/>
       <c r="L96" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -8068,7 +8213,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="29.1">
       <c r="A97" s="2" t="s">
         <v>246</v>
       </c>
@@ -8131,7 +8276,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="29.1">
       <c r="A98" s="2" t="s">
         <v>248</v>
       </c>
@@ -8191,7 +8336,7 @@
         <v>95.388000000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="29.1">
       <c r="A99" s="2" t="s">
         <v>251</v>
       </c>
@@ -8251,7 +8396,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="29.1">
       <c r="A100" s="2" t="s">
         <v>255</v>
       </c>
@@ -8311,7 +8456,7 @@
         <v>94.73</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="29.1">
       <c r="A101" s="2" t="s">
         <v>258</v>
       </c>
@@ -8374,7 +8519,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="29.1">
       <c r="A102" s="69" t="s">
         <v>261</v>
       </c>
@@ -8437,7 +8582,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="29.1">
       <c r="A103" s="2" t="s">
         <v>264</v>
       </c>
@@ -8497,7 +8642,7 @@
         <v>102.87</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="29.1">
       <c r="A104" s="2" t="s">
         <v>267</v>
       </c>
@@ -8560,7 +8705,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="29.1">
       <c r="A105" s="2" t="s">
         <v>269</v>
       </c>
@@ -8620,7 +8765,7 @@
         <v>99.488</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="29.1">
       <c r="A106" s="69" t="s">
         <v>272</v>
       </c>
@@ -8680,7 +8825,7 @@
         <v>96.19</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="29.1">
       <c r="A107" s="2" t="s">
         <v>273</v>
       </c>
@@ -8743,7 +8888,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="29.1">
       <c r="A108" s="2" t="s">
         <v>275</v>
       </c>
@@ -8809,7 +8954,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="29.1">
       <c r="A109" s="69" t="s">
         <v>278</v>
       </c>
@@ -8875,7 +9020,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="29.1">
       <c r="A110" s="2" t="s">
         <v>281</v>
       </c>
@@ -8935,7 +9080,7 @@
         <v>127.88</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="29.1">
       <c r="A111" s="69" t="s">
         <v>284</v>
       </c>
@@ -8992,7 +9137,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="29.1">
       <c r="A112" s="2" t="s">
         <v>286</v>
       </c>
@@ -9055,7 +9200,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="29.1">
       <c r="A113" s="69" t="s">
         <v>289</v>
       </c>
@@ -9118,7 +9263,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="29.1">
       <c r="A114" s="69" t="s">
         <v>293</v>
       </c>
@@ -9180,10 +9325,13 @@
       <c r="V114" s="2">
         <v>148</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="W114" s="92" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="29.1">
       <c r="A115" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B115" s="3">
         <v>45210</v>
@@ -9232,15 +9380,15 @@
         <v>80</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W115" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="29.1">
       <c r="A116" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B116" s="3">
         <v>45211</v>
@@ -9292,9 +9440,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="29.1">
       <c r="A117" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B117" s="3">
         <v>45212</v>
@@ -9346,18 +9494,18 @@
         <v>205</v>
       </c>
       <c r="R117" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W117" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="29.1">
       <c r="A118" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B118" s="3">
         <v>45213</v>
@@ -9366,7 +9514,7 @@
         <v>244</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>25</v>
@@ -9412,12 +9560,12 @@
         <v>109</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="29.1">
       <c r="A119" s="69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B119" s="3">
         <v>45214</v>
@@ -9466,18 +9614,18 @@
         <v>80.599999999999994</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R119" s="76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U119" s="2">
         <v>88.66</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="29.1">
       <c r="A120" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B120" s="3">
         <v>45215</v>
@@ -9529,15 +9677,15 @@
         <v>205</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U120" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="29.1">
       <c r="A121" s="69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B121" s="3">
         <v>45216</v>
@@ -9589,27 +9737,27 @@
         <v>205</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U121" s="2">
         <v>91.76</v>
       </c>
       <c r="V121" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="29.1">
       <c r="A122" s="69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B122" s="3">
         <v>45219</v>
       </c>
       <c r="C122" s="70" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>92</v>
@@ -9652,27 +9800,30 @@
         <v>201.7</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="U122" s="2">
         <v>230</v>
       </c>
       <c r="V122" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="W122" s="92" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="29.1">
       <c r="A123" s="69" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B123" s="3">
         <v>45222</v>
       </c>
       <c r="C123" s="70" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>92</v>
@@ -9715,38 +9866,41 @@
         <v>201.7</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U123" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="V123" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="96" t="s">
-        <v>326</v>
-      </c>
-      <c r="B124" s="104">
+        <v>327</v>
+      </c>
+      <c r="W123" s="92" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="29.1">
+      <c r="A124" s="103" t="s">
+        <v>329</v>
+      </c>
+      <c r="B124" s="111">
         <v>45223</v>
       </c>
-      <c r="C124" s="101" t="s">
-        <v>316</v>
+      <c r="C124" s="108" t="s">
+        <v>317</v>
       </c>
       <c r="D124" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="E124" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="99" t="s">
+      <c r="E124" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="106" t="s">
         <v>26</v>
       </c>
       <c r="G124" s="78">
@@ -9759,9 +9913,9 @@
         <v>17.78</v>
       </c>
       <c r="J124" s="79" t="s">
-        <v>327</v>
-      </c>
-      <c r="K124" s="99">
+        <v>330</v>
+      </c>
+      <c r="K124" s="106">
         <v>6.1</v>
       </c>
       <c r="L124" s="78">
@@ -9786,15 +9940,15 @@
       <c r="V124" s="78"/>
       <c r="W124" s="81"/>
     </row>
-    <row r="125" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="97"/>
-      <c r="B125" s="93"/>
-      <c r="C125" s="102"/>
+    <row r="125" spans="1:23" ht="29.1">
+      <c r="A125" s="104"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="109"/>
       <c r="D125" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E125" s="92"/>
-      <c r="F125" s="92"/>
+      <c r="E125" s="99"/>
+      <c r="F125" s="99"/>
       <c r="G125" s="2">
         <v>110</v>
       </c>
@@ -9807,7 +9961,7 @@
       <c r="J125" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K125" s="92"/>
+      <c r="K125" s="99"/>
       <c r="L125" s="13">
         <v>2.2799999999999998</v>
       </c>
@@ -9823,15 +9977,15 @@
       </c>
       <c r="W125" s="82"/>
     </row>
-    <row r="126" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="98"/>
-      <c r="B126" s="105"/>
-      <c r="C126" s="103"/>
+    <row r="126" spans="1:23" ht="29.1">
+      <c r="A126" s="105"/>
+      <c r="B126" s="112"/>
+      <c r="C126" s="110"/>
       <c r="D126" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="E126" s="100"/>
-      <c r="F126" s="100"/>
+      <c r="E126" s="107"/>
+      <c r="F126" s="107"/>
       <c r="G126" s="83">
         <v>75</v>
       </c>
@@ -9842,9 +9996,9 @@
         <v>17.78</v>
       </c>
       <c r="J126" s="84" t="s">
-        <v>327</v>
-      </c>
-      <c r="K126" s="100"/>
+        <v>330</v>
+      </c>
+      <c r="K126" s="107"/>
       <c r="L126" s="83">
         <v>0.84</v>
       </c>
@@ -9867,15 +10021,15 @@
       <c r="V126" s="83"/>
       <c r="W126" s="85"/>
     </row>
-    <row r="127" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="29.1">
       <c r="A127" s="69" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B127" s="3">
         <v>45225</v>
       </c>
       <c r="C127" s="70" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>92</v>
@@ -9918,24 +10072,27 @@
         <v>311</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="U127" s="2" t="s">
         <v>28</v>
       </c>
       <c r="V127" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="W127" s="92" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="29.1">
       <c r="A128" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B128" s="3">
         <v>45228</v>
@@ -9981,18 +10138,18 @@
         <v>9250</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="R128" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="29.1">
       <c r="A129" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B129" s="3">
         <v>45229</v>
@@ -10041,15 +10198,15 @@
         <v>247.5</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="R129" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="14.45">
       <c r="A130" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B130" s="3">
         <v>45231</v>
@@ -10073,12 +10230,12 @@
         <v>700</v>
       </c>
       <c r="U130" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="29.1">
       <c r="A131" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B131" s="3">
         <v>45358</v>
@@ -10102,7 +10259,7 @@
         <v>700</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J131" s="13" t="s">
         <v>31</v>
@@ -10114,7 +10271,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="M131" s="19" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N131" s="70">
         <v>3</v>
@@ -10123,12 +10280,12 @@
         <v>7400</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="174">
       <c r="A132" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B132" s="3">
         <v>45365</v>
@@ -10173,15 +10330,15 @@
         <v>7400</v>
       </c>
       <c r="T132" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V132" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="29.1">
       <c r="A133" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>244</v>
@@ -10202,7 +10359,7 @@
         <v>700</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J133" s="13" t="s">
         <v>31</v>
@@ -10214,7 +10371,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N133" s="70">
         <v>3</v>
@@ -10223,18 +10380,18 @@
         <v>14800</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="U133" s="2" t="s">
         <v>28</v>
       </c>
       <c r="V133" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="29.1">
       <c r="A134" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B134" s="3">
         <v>45386</v>
@@ -10279,7 +10436,116 @@
         <v>9000</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="42.6" customHeight="1">
+      <c r="A135" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B135" s="3">
+        <v>45469</v>
+      </c>
+      <c r="C135" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="68">
+        <v>110</v>
+      </c>
+      <c r="H135" s="68">
+        <v>700</v>
+      </c>
+      <c r="I135" s="2">
+        <v>48.9</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L135" s="13">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M135" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="N135" s="25">
+        <v>3</v>
+      </c>
+      <c r="O135" s="2">
+        <v>3800</v>
+      </c>
+      <c r="W135" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="42" customHeight="1">
+      <c r="A136" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B136" s="3">
+        <v>45551</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" s="68">
+        <v>110</v>
+      </c>
+      <c r="H136" s="68">
+        <v>700</v>
+      </c>
+      <c r="I136" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L136" s="13">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M136" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="N136" s="25">
+        <v>3</v>
+      </c>
+      <c r="O136" s="2">
+        <v>2500</v>
+      </c>
+      <c r="P136" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="R136" s="2">
+        <v>4.4568000000000003</v>
+      </c>
+      <c r="U136" s="2">
+        <v>73.400000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -10395,26 +10661,26 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="43.5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>11</v>
@@ -10426,28 +10692,28 @@
         <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L1" s="106" t="s">
-        <v>469</v>
-      </c>
-      <c r="M1" s="106"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="L1" s="113" t="s">
+        <v>502</v>
+      </c>
+      <c r="M1" s="113"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" t="s">
-        <v>485</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -10462,12 +10728,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -10496,29 +10762,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="2"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="11" width="15.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="2"/>
-    <col min="13" max="13" width="11.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="2"/>
-    <col min="15" max="15" width="18.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="53.6640625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="15.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="11.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="18.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="53.5703125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="29.1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -10527,7 +10793,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
@@ -10539,107 +10805,107 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="92"/>
+      <c r="L1" s="99"/>
       <c r="M1" s="2" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="O1" s="92" t="s">
-        <v>469</v>
-      </c>
-      <c r="P1" s="92"/>
-    </row>
-    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="O1" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="P1" s="99"/>
+    </row>
+    <row r="2" spans="1:16" ht="29.1">
       <c r="A2" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="E2" s="2">
         <v>700</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G2" s="2">
         <v>1.25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I2" s="2">
         <v>50</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="O2" s="92" t="s">
-        <v>523</v>
-      </c>
-      <c r="P2" s="107" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="O2" s="99" t="s">
+        <v>556</v>
+      </c>
+      <c r="P2" s="114" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="29.1">
       <c r="A3" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="E3" s="2">
         <v>850</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G3" s="2">
         <v>1.5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I3" s="2">
         <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="107"/>
-    </row>
-    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="O3" s="99"/>
+      <c r="P3" s="114"/>
+    </row>
+    <row r="4" spans="1:16" ht="29.1">
       <c r="A4" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="E4" s="2">
         <v>700</v>
@@ -10651,31 +10917,31 @@
         <v>1.25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="O4" s="92"/>
-      <c r="P4" s="107" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="O4" s="99"/>
+      <c r="P4" s="114" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="29.1">
       <c r="A5" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="E5" s="2">
         <v>700</v>
@@ -10687,29 +10953,29 @@
         <v>1.25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="107"/>
-    </row>
-    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="O5" s="99"/>
+      <c r="P5" s="114"/>
+    </row>
+    <row r="6" spans="1:16" ht="29.1">
       <c r="A6" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="E6" s="2">
         <v>710</v>
@@ -10724,36 +10990,36 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="29.1">
       <c r="A7" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="E7" s="2">
         <v>700</v>
@@ -10768,33 +11034,33 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="J7" s="2">
         <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="29.1">
       <c r="A8" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="D8" s="2">
         <v>150</v>
@@ -10803,7 +11069,7 @@
         <v>750</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
@@ -10815,33 +11081,33 @@
         <v>50</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="29.1">
       <c r="A9" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="E9" s="2">
         <v>800</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G9" s="2">
         <v>1.2</v>
@@ -10850,18 +11116,18 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="29.1">
       <c r="A10" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="D10" s="2">
         <v>150</v>
@@ -10870,7 +11136,7 @@
         <v>750</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G10" s="2">
         <v>1.8</v>
@@ -10882,7 +11148,7 @@
         <v>50</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -10910,62 +11176,62 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="G1" s="109" t="s">
-        <v>547</v>
-      </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="G1" s="116" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="5" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="H2" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
-        <f>4/22</f>
-        <v>0.18181818181818182</v>
+        <f>619/2500</f>
+        <v>0.24759999999999999</v>
       </c>
       <c r="C3" s="7">
         <f>B3*60*D3/10</f>
-        <v>10.90909090909091</v>
+        <v>4.4567999999999994</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G3" s="47">
         <v>0.1</v>
@@ -10979,25 +11245,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="G4" s="46">
         <f>H4*0.0013332237</f>
-        <v>9.999177749999999E-2</v>
+        <v>0.13332237</v>
       </c>
       <c r="H4" s="48">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I4" s="49">
         <f>H4*0.13332237</f>
-        <v>9.9991777499999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13.332236999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -11014,7 +11280,7 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -11043,9 +11309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F851E61-4AE6-4D57-BB3F-555F1D412759}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11059,12 +11325,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="72.599999999999994">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11112,23 +11378,23 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="92" t="s">
+      <c r="R1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="92"/>
-    </row>
-    <row r="2" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="S1" s="99"/>
+    </row>
+    <row r="2" spans="1:19" ht="57.95">
       <c r="A2" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B2" s="3">
         <v>44801</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -11184,13 +11450,13 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="72.599999999999994">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11238,18 +11504,18 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="92" t="s">
+      <c r="R1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92" t="s">
-        <v>355</v>
-      </c>
-      <c r="U1" s="92"/>
-    </row>
-    <row r="2" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="S1" s="99"/>
+      <c r="T1" s="99" t="s">
+        <v>362</v>
+      </c>
+      <c r="U1" s="99"/>
+    </row>
+    <row r="2" spans="1:21" ht="57.95">
       <c r="A2" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B2" s="3">
         <v>44738</v>
@@ -11258,7 +11524,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -11297,21 +11563,21 @@
         <v>45</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -11326,18 +11592,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="57.95">
       <c r="A4" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B4" s="3">
         <v>44932</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -11378,18 +11644,18 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="57.95">
       <c r="A5" s="2" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B5" s="3">
         <v>44933</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -11428,18 +11694,18 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="57.95">
       <c r="A6" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B6" s="3">
         <v>44933</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -11476,18 +11742,18 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="57.95">
       <c r="A7" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B7" s="3">
         <v>44934</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -11528,18 +11794,18 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="57.95">
       <c r="A8" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B8" s="3">
         <v>44935</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -11581,49 +11847,49 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="2"/>
     </row>
   </sheetData>
@@ -11637,30 +11903,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3667C0D-E95D-490D-B1F0-A992129C5AE4}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="2" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="2"/>
-    <col min="8" max="8" width="14.109375" style="2" customWidth="1"/>
-    <col min="9" max="12" width="9.109375" style="2"/>
-    <col min="13" max="13" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9.109375" style="2"/>
-    <col min="18" max="19" width="10.109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="16.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="19" width="10.140625" style="2" customWidth="1"/>
+    <col min="20" max="22" width="12.85546875" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="57.95">
       <c r="A1" s="2" t="s">
-        <v>553</v>
+        <v>375</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11687,7 +11956,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
@@ -11707,18 +11976,20 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="92"/>
+      <c r="Q1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="S1" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="57.95">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -11729,7 +12000,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -11770,13 +12041,13 @@
       <c r="Q2" s="2">
         <v>0.04</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R2" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="57.95">
       <c r="A3" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B3" s="3">
         <v>44742</v>
@@ -11785,7 +12056,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -11826,13 +12097,13 @@
       <c r="Q3" s="2">
         <v>0.02</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R3" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="57.95">
       <c r="A4" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B4" s="3">
         <v>44832</v>
@@ -11841,7 +12112,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -11882,11 +12153,11 @@
       <c r="Q4" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R4" s="2">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="57.95">
       <c r="A5" s="2" t="s">
         <v>229</v>
       </c>
@@ -11894,7 +12165,7 @@
         <v>45002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>230</v>
@@ -11939,11 +12210,11 @@
         <f>81/4000</f>
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R5" s="2">
+        <v>1.2150000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="57.95">
       <c r="A6" s="2" t="s">
         <v>232</v>
       </c>
@@ -11951,7 +12222,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>230</v>
@@ -11969,7 +12240,7 @@
         <v>650</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="J6" s="60" t="s">
         <v>231</v>
@@ -11984,15 +12255,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="57.95">
       <c r="A7" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B7" s="3">
         <v>45009</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>230</v>
@@ -12036,11 +12307,11 @@
       <c r="Q7" s="2">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R7" s="2">
+        <v>1.1519999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="57.95">
       <c r="A8" s="88" t="s">
         <v>237</v>
       </c>
@@ -12048,7 +12319,7 @@
         <v>45009</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>230</v>
@@ -12093,11 +12364,11 @@
         <f>71/4000</f>
         <v>1.7749999999999998E-2</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R8" s="2">
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="57.95">
       <c r="A9" s="88" t="s">
         <v>238</v>
       </c>
@@ -12105,7 +12376,7 @@
         <v>45010</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>230</v>
@@ -12144,7 +12415,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="57.95">
       <c r="A10" s="88" t="s">
         <v>239</v>
       </c>
@@ -12152,7 +12423,7 @@
         <v>45011</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>230</v>
@@ -12191,7 +12462,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="57.95">
       <c r="A11" s="25" t="s">
         <v>240</v>
       </c>
@@ -12199,7 +12470,7 @@
         <v>45013</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>230</v>
@@ -12243,11 +12514,11 @@
       <c r="Q11" s="2">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R11" s="2">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="57.95">
       <c r="A12" s="2" t="s">
         <v>241</v>
       </c>
@@ -12255,7 +12526,7 @@
         <v>45015</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>230</v>
@@ -12294,7 +12565,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="57.95">
       <c r="A13" s="2" t="s">
         <v>242</v>
       </c>
@@ -12302,7 +12573,7 @@
         <v>45016</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>230</v>
@@ -12341,7 +12612,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="57.95">
       <c r="A14" s="2" t="s">
         <v>243</v>
       </c>
@@ -12349,7 +12620,7 @@
         <v>45017</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>230</v>
@@ -12388,7 +12659,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="57.95">
       <c r="A15" s="2" t="s">
         <v>245</v>
       </c>
@@ -12396,7 +12667,7 @@
         <v>45018</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>230</v>
@@ -12435,15 +12706,15 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="57.95">
       <c r="A16" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B16" s="3">
         <v>45223</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>230</v>
@@ -12458,13 +12729,13 @@
         <v>75</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I16" s="86">
         <v>17.78</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K16" s="2">
         <v>6.1</v>
@@ -12483,18 +12754,18 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="57.95">
       <c r="A18" s="2" t="s">
-        <v>554</v>
+        <v>390</v>
       </c>
       <c r="B18" s="3">
         <v>45421</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>230</v>
@@ -12509,13 +12780,13 @@
         <v>75</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I18" s="2">
         <v>14.22</v>
       </c>
       <c r="J18" s="84" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K18" s="2">
         <v>6.1</v>
@@ -12539,22 +12810,22 @@
       <c r="Q18" s="2">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>388</v>
+      <c r="R18" s="2">
+        <v>1.6</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="57.95">
       <c r="A19" s="2" t="s">
-        <v>555</v>
+        <v>393</v>
       </c>
       <c r="B19" s="3">
         <v>45428</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>230</v>
@@ -12569,13 +12840,13 @@
         <v>75</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J19" s="84" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K19" s="2">
         <v>6.1</v>
@@ -12584,7 +12855,7 @@
         <v>0.84</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="N19" s="2">
         <v>10</v>
@@ -12599,16 +12870,16 @@
         <f>247/8000</f>
         <v>3.0875E-2</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>393</v>
+      <c r="R19" s="2">
+        <v>1.8</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="57.95">
       <c r="A20" s="2" t="s">
-        <v>556</v>
+        <v>398</v>
       </c>
       <c r="B20" s="3">
         <v>45429</v>
@@ -12626,7 +12897,7 @@
         <v>75</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I20" s="2">
         <v>46.8</v>
@@ -12640,7 +12911,7 @@
       <c r="L20" s="25">
         <v>2.2799999999999998</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="10">
         <v>2.0499999999999998</v>
       </c>
       <c r="N20" s="2">
@@ -12656,19 +12927,19 @@
         <f>672/6000</f>
         <v>0.112</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R20" s="2">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="57.95">
       <c r="A21" s="2" t="s">
-        <v>557</v>
+        <v>399</v>
       </c>
       <c r="B21" s="3">
         <v>45442</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>230</v>
@@ -12683,7 +12954,7 @@
         <v>75</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I21" s="2">
         <v>46.8</v>
@@ -12697,7 +12968,7 @@
       <c r="L21" s="25">
         <v>2.2799999999999998</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="10">
         <v>2.0499999999999998</v>
       </c>
       <c r="N21" s="13">
@@ -12708,15 +12979,15 @@
       </c>
       <c r="Q21" s="90"/>
     </row>
-    <row r="22" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="57.95">
       <c r="A22" s="2" t="s">
-        <v>558</v>
+        <v>400</v>
       </c>
       <c r="B22" s="3">
         <v>45442</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>230</v>
@@ -12731,7 +13002,7 @@
         <v>75</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I22" s="2">
         <v>46.8</v>
@@ -12745,7 +13016,7 @@
       <c r="L22" s="25">
         <v>2.2799999999999998</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="10">
         <v>2.0499999999999998</v>
       </c>
       <c r="N22" s="70">
@@ -12756,15 +13027,15 @@
       </c>
       <c r="Q22" s="90"/>
     </row>
-    <row r="23" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="57.95">
       <c r="A23" s="2" t="s">
-        <v>559</v>
+        <v>401</v>
       </c>
       <c r="B23" s="3">
         <v>45448</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>230</v>
@@ -12779,7 +13050,7 @@
         <v>100</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I23" s="2">
         <v>46.8</v>
@@ -12793,7 +13064,7 @@
       <c r="L23" s="25">
         <v>2.2799999999999998</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="10">
         <v>2.0499999999999998</v>
       </c>
       <c r="N23" s="13">
@@ -12803,13 +13074,13 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="57.95">
       <c r="A24" s="2" t="s">
-        <v>560</v>
+        <v>402</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>230</v>
@@ -12823,8 +13094,8 @@
       <c r="G24" s="10">
         <v>75</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>386</v>
+      <c r="H24" s="94" t="s">
+        <v>389</v>
       </c>
       <c r="I24" s="2">
         <v>46.8</v>
@@ -12838,7 +13109,7 @@
       <c r="L24" s="25">
         <v>2.2799999999999998</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="10">
         <v>2.0499999999999998</v>
       </c>
       <c r="N24" s="13">
@@ -12847,14 +13118,23 @@
       <c r="O24" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="P24" s="2">
+        <v>58.82</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>9.8032999999999995E-2</v>
+      </c>
+      <c r="R24" s="2">
+        <v>2.9409999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="57.95">
       <c r="A25" s="2" t="s">
-        <v>561</v>
+        <v>404</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>230</v>
@@ -12869,7 +13149,7 @@
         <v>75</v>
       </c>
       <c r="H25" s="91" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="I25" s="2">
         <v>46.8</v>
@@ -12883,7 +13163,7 @@
       <c r="L25" s="25">
         <v>2.2799999999999998</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="10">
         <v>2.0499999999999998</v>
       </c>
       <c r="N25" s="13">
@@ -12893,15 +13173,15 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="57.95">
       <c r="A26" s="2" t="s">
-        <v>562</v>
+        <v>407</v>
       </c>
       <c r="B26" s="3">
         <v>45460</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>230</v>
@@ -12915,8 +13195,8 @@
       <c r="G26" s="10">
         <v>75</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>386</v>
+      <c r="H26" s="94" t="s">
+        <v>389</v>
       </c>
       <c r="I26" s="2">
         <v>36.5</v>
@@ -12939,54 +13219,998 @@
       <c r="O26" s="2">
         <v>7000</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P26" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1.6970000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="57.95">
+      <c r="A27" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45468</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="10">
+        <v>75</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="I27" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L27" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M27" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N27" s="13">
+        <v>5</v>
+      </c>
+      <c r="O27" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="57.95">
       <c r="A28" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G28" s="2">
+        <v>411</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45469</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="10">
         <v>75</v>
       </c>
-      <c r="H28" s="2">
-        <v>700</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="H28" s="95" t="s">
+        <v>412</v>
+      </c>
+      <c r="I28" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L28" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M28" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N28" s="13">
+        <v>5</v>
+      </c>
+      <c r="O28" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="57.95">
+      <c r="A29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="93">
+        <v>100</v>
+      </c>
+      <c r="H29" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I29" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L29" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M29" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N29" s="13">
+        <v>5</v>
+      </c>
+      <c r="O29" s="2">
+        <v>7000</v>
+      </c>
+      <c r="P29" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1.577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="57.95">
+      <c r="A30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="10">
+        <v>75</v>
+      </c>
+      <c r="H30" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I30" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L30" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M30" s="77">
+        <v>1.23</v>
+      </c>
+      <c r="N30" s="13">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2">
+        <v>7000</v>
+      </c>
+      <c r="P30" s="2">
+        <v>33.1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>4.7286000000000002E-2</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1.4185700000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="57.95">
+      <c r="A31" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45472</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="13">
+        <v>125</v>
+      </c>
+      <c r="H31" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I31" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L31" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M31" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N31" s="13">
+        <v>5</v>
+      </c>
+      <c r="O31" s="2">
+        <v>12000</v>
+      </c>
+      <c r="P31" s="2">
+        <v>65</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="57.95">
+      <c r="A32" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45474</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="70">
+        <v>50</v>
+      </c>
+      <c r="H32" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I32" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L32" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M32" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N32" s="13">
+        <v>5</v>
+      </c>
+      <c r="O32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P32" s="2">
+        <v>57.6</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1.728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="57.95">
+      <c r="A33" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45476</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="10">
+        <v>75</v>
+      </c>
+      <c r="H33" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I33" s="2">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L33" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M33" s="94">
         <v>0.8</v>
       </c>
-      <c r="N28" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G29" s="2">
-        <v>75</v>
-      </c>
-      <c r="H29" s="2">
-        <v>650</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="N29" s="2">
-        <v>10</v>
+      <c r="N33" s="13">
+        <v>5</v>
+      </c>
+      <c r="O33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P33" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="57.95">
+      <c r="A34" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45477</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="73">
+        <v>150</v>
+      </c>
+      <c r="H34" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I34" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L34" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M34" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N34" s="13">
+        <v>5</v>
+      </c>
+      <c r="O34" s="2">
+        <v>12000</v>
+      </c>
+      <c r="P34" s="2">
+        <v>66.3</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>5.525E-2</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1.657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="57.95">
+      <c r="A35" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45478</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="96">
+        <v>175</v>
+      </c>
+      <c r="H35" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I35" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L35" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M35" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N35" s="13">
+        <v>5</v>
+      </c>
+      <c r="O35" s="2">
+        <v>12000</v>
+      </c>
+      <c r="P35" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>4.9829999999999999E-2</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1.4950000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="57.95">
+      <c r="A36" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45508</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="93">
+        <v>100</v>
+      </c>
+      <c r="H36" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I36" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L36" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M36" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N36" s="13">
+        <v>5</v>
+      </c>
+      <c r="O36" s="2">
+        <v>12357</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="57.95">
+      <c r="A37" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45543</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>424</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="93">
+        <v>100</v>
+      </c>
+      <c r="H37" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I37" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L37" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M37" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N37" s="13">
+        <v>5</v>
+      </c>
+      <c r="O37" s="2">
+        <v>12357</v>
+      </c>
+      <c r="P37" s="2">
+        <v>92.6</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="R37" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="57.95">
+      <c r="A38" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45545</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="93">
+        <v>100</v>
+      </c>
+      <c r="H38" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="I38" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L38" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M38" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N38" s="13">
+        <v>5</v>
+      </c>
+      <c r="O38" s="2">
+        <v>12357</v>
+      </c>
+      <c r="P38" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="57.95">
+      <c r="A39" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45546</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="93">
+        <v>100</v>
+      </c>
+      <c r="H39" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="I39" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L39" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M39" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N39" s="13">
+        <v>5</v>
+      </c>
+      <c r="O39" s="2">
+        <v>12357</v>
+      </c>
+      <c r="P39" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="57.95">
+      <c r="A40" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45547</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="93">
+        <v>100</v>
+      </c>
+      <c r="H40" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="I40" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L40" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M40" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N40" s="13">
+        <v>5</v>
+      </c>
+      <c r="O40" s="2">
+        <v>12357</v>
+      </c>
+      <c r="P40" s="2">
+        <v>69.5</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="57.95">
+      <c r="A41" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45548</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="93">
+        <v>100</v>
+      </c>
+      <c r="H41" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="I41" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L41" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M41" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N41" s="13">
+        <v>5</v>
+      </c>
+      <c r="O41" s="2">
+        <v>12357</v>
+      </c>
+      <c r="P41" s="2">
+        <v>71.3</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="57.95">
+      <c r="A42" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45548</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="93">
+        <v>100</v>
+      </c>
+      <c r="H42" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="I42" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L42" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M42" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N42" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="O42" s="2">
+        <v>12357</v>
+      </c>
+      <c r="P42" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R42" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="57.95">
+      <c r="A44" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="93">
+        <v>100</v>
+      </c>
+      <c r="H44" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I44" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L44" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M44" s="91">
+        <v>1.6</v>
+      </c>
+      <c r="N44" s="13">
+        <v>5</v>
+      </c>
+      <c r="O44" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="57.95">
+      <c r="A45" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45491</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="93">
+        <v>100</v>
+      </c>
+      <c r="H45" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I45" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L45" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="N45" s="13">
+        <v>5</v>
+      </c>
+      <c r="O45" s="2">
+        <v>13600</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="Q1:R1"/>
-  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13000,14 +14224,14 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="72.599999999999994">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13025,7 +14249,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -13054,24 +14278,24 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="92"/>
+      <c r="R1" s="99"/>
       <c r="S1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="T1" s="92" t="s">
-        <v>355</v>
-      </c>
-      <c r="U1" s="92"/>
+        <v>437</v>
+      </c>
+      <c r="T1" s="99" t="s">
+        <v>362</v>
+      </c>
+      <c r="U1" s="99"/>
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="57.95">
       <c r="A2" s="2" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="B2" s="3">
         <v>44899</v>
@@ -13080,7 +14304,7 @@
         <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -13116,9 +14340,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="57.95">
       <c r="A3" s="2" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="B3" s="3">
         <v>44900</v>
@@ -13127,7 +14351,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -13170,9 +14394,9 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="57.95">
       <c r="A4" s="2" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="B4" s="3">
         <v>44901</v>
@@ -13181,7 +14405,7 @@
         <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -13224,18 +14448,18 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="43.5">
       <c r="A5" s="2" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="B5" s="3">
         <v>44902</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -13244,25 +14468,25 @@
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="K5" s="2">
         <v>6.1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="N5" s="16">
         <v>1</v>
@@ -13277,21 +14501,21 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="43.5">
       <c r="A6" s="2" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="B6" s="3">
         <v>44904</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -13330,28 +14554,28 @@
         <v>41.3</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="43.5">
       <c r="A7" s="2" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B7" s="3">
         <v>44905</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -13390,28 +14614,28 @@
         <v>23.7</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="43.5">
       <c r="A8" s="2" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="B8" s="3">
         <v>44906</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -13450,28 +14674,28 @@
         <v>34.5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="43.5">
       <c r="A9" s="2" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="B9" s="3">
         <v>44906</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -13510,28 +14734,28 @@
         <v>36.200000000000003</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="43.5">
       <c r="A10" s="2" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="B10" s="3">
         <v>44907</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -13570,28 +14794,28 @@
         <v>35.799999999999997</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="43.5">
       <c r="A11" s="2" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="B11" s="3">
         <v>44908</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -13630,28 +14854,28 @@
         <v>33.1</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="43.5">
       <c r="A12" s="2" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="B12" s="3">
         <v>44909</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -13690,25 +14914,25 @@
         <v>34.799999999999997</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
-        <v>439</v>
+    <row r="13" spans="1:22" ht="29.1">
+      <c r="A13" s="99" t="s">
+        <v>472</v>
       </c>
       <c r="B13" s="3">
         <v>44910</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>92</v>
@@ -13754,16 +14978,16 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
+    <row r="14" spans="1:22" ht="43.5">
+      <c r="A14" s="99"/>
       <c r="B14" s="3">
         <v>44910</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -13806,13 +15030,13 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="92"/>
+    <row r="15" spans="1:22" ht="29.1">
+      <c r="A15" s="99"/>
       <c r="B15" s="3">
         <v>44910</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>92</v>
@@ -13858,7 +15082,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -13882,7 +15106,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -13906,7 +15130,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -13930,7 +15154,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -13954,7 +15178,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13978,7 +15202,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -14002,7 +15226,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -14026,7 +15250,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -14050,7 +15274,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -14074,7 +15298,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -14098,7 +15322,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -14141,13 +15365,13 @@
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="72.599999999999994">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -14165,7 +15389,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -14194,39 +15418,39 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="92"/>
+      <c r="R1" s="99"/>
       <c r="S1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="T1" s="92" t="s">
-        <v>355</v>
-      </c>
-      <c r="U1" s="92"/>
+        <v>437</v>
+      </c>
+      <c r="T1" s="99" t="s">
+        <v>362</v>
+      </c>
+      <c r="U1" s="99"/>
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="29.1">
       <c r="A2" s="2" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="B2" s="3">
         <v>44916</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G2" s="30">
         <v>0.04</v>
@@ -14263,24 +15487,24 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="29.1">
       <c r="A3" s="2" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="B3" s="3">
         <v>44919</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G3" s="30">
         <v>0.04</v>
@@ -14317,24 +15541,24 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="29.1">
       <c r="A4" s="2" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="B4" s="3">
         <v>44919</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G4" s="30">
         <v>0.04</v>
@@ -14371,24 +15595,24 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="29.1">
       <c r="A5" s="2" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="B5" s="3">
         <v>44920</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G5" s="30">
         <v>0.04</v>
@@ -14425,24 +15649,24 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="29.1">
       <c r="A6" s="2" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="B6" s="3">
         <v>44920</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G6" s="40">
         <v>9.3299999999999994E-2</v>
@@ -14479,24 +15703,24 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="29.1">
       <c r="A7" s="2" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="B7" s="3">
         <v>44922</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G7" s="30">
         <v>0.04</v>
@@ -14529,30 +15753,30 @@
         <v>66.8</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="29.1">
       <c r="A8" s="2" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="B8" s="3">
         <v>44922</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G8" s="30">
         <v>0.04</v>
@@ -14585,24 +15809,24 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="29.1">
       <c r="A9" s="2" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="B9" s="3">
         <v>44923</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G9" s="30">
         <v>0.04</v>
@@ -14635,30 +15859,30 @@
         <v>68.2</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="29.1">
       <c r="A10" s="2" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="B10" s="3">
         <v>44924</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G10" s="40">
         <v>9.3299999999999994E-2</v>
@@ -14691,30 +15915,30 @@
         <v>55</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="29.1">
       <c r="A11" s="2" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="B11" s="3">
         <v>44925</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G11" s="41">
         <v>6.6661200000000002E-3</v>
@@ -14744,24 +15968,24 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="29.1">
       <c r="A12" s="2" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="B12" s="3">
         <v>44925</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G12" s="43">
         <v>6.6661200000000002E-4</v>
@@ -14791,24 +16015,24 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="29.1">
       <c r="A13" s="2" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="B13" s="3">
         <v>44926</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G13" s="42">
         <v>6.6699999999999995E-5</v>
@@ -14838,24 +16062,24 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="29.1">
       <c r="A14" s="2" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B14" s="3">
         <v>44928</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G14" s="43">
         <v>6.6661200000000002E-4</v>
@@ -14885,24 +16109,24 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="29.1">
       <c r="A15" s="2" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="B15" s="3">
         <v>44929</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="G15" s="43">
         <v>6.6661200000000002E-4</v>
@@ -14949,15 +16173,15 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="57.95">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -14968,10 +16192,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
@@ -14983,35 +16207,35 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="92"/>
+      <c r="L1" s="99"/>
       <c r="M1" s="2" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="P1" s="92" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="P1" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q1" s="99"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="29.1">
       <c r="A2" s="2" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -15023,7 +16247,7 @@
         <v>650</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -15038,30 +16262,30 @@
         <v>400</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="M2" s="2">
         <v>0.22</v>
       </c>
       <c r="P2" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="Q2" s="44" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="D3" s="31">
         <v>3.9996710999999997E-2</v>
@@ -15070,39 +16294,39 @@
         <v>630</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G3" s="2">
         <v>0.9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="J3" s="2">
         <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="P3" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="Q3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -15111,7 +16335,7 @@
         <v>630</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G4" s="2">
         <v>0.9</v>
@@ -15120,13 +16344,13 @@
         <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="O4" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -15149,30 +16373,30 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="57.95">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>11</v>
@@ -15184,34 +16408,34 @@
         <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L1" s="106" t="s">
-        <v>469</v>
-      </c>
-      <c r="M1" s="106"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="L1" s="113" t="s">
+        <v>502</v>
+      </c>
+      <c r="M1" s="113"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="E2" s="1">
         <v>2.6</v>
@@ -15226,24 +16450,24 @@
         <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="L2" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="M2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="C3" s="1">
         <v>120</v>
@@ -15252,7 +16476,7 @@
         <v>680</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -15264,24 +16488,24 @@
         <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="L3" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C4" s="1">
         <v>120</v>
@@ -15290,7 +16514,7 @@
         <v>1000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="F4" s="1">
         <v>1.5</v>
@@ -15299,27 +16523,27 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="29.1">
       <c r="A5" s="9" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -15331,36 +16555,36 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29.1">
       <c r="A6" s="8" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -15369,10 +16593,10 @@
         <v>600</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -15381,27 +16605,27 @@
         <v>66</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="B7" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
@@ -15410,36 +16634,36 @@
         <v>700</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="L7" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="E8" s="1">
         <v>2.6</v>
@@ -15454,57 +16678,57 @@
         <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="L8" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="L9" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -15515,7 +16739,7 @@
       <c r="J10" s="1"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="C11" s="1">
         <v>60</v>
       </c>
@@ -15528,7 +16752,7 @@
       <c r="J11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -15539,7 +16763,7 @@
       <c r="J12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -15550,7 +16774,7 @@
       <c r="J13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -15561,7 +16785,7 @@
       <c r="J14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -15572,7 +16796,7 @@
       <c r="J15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -15583,7 +16807,7 @@
       <c r="J16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -15594,7 +16818,7 @@
       <c r="J17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -15605,7 +16829,7 @@
       <c r="J18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -15616,7 +16840,7 @@
       <c r="J19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -15627,7 +16851,7 @@
       <c r="J20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -15638,7 +16862,7 @@
       <c r="J21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -15649,7 +16873,7 @@
       <c r="J22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -15660,7 +16884,7 @@
       <c r="J23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -15671,7 +16895,7 @@
       <c r="J24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -15682,7 +16906,7 @@
       <c r="J25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -15693,7 +16917,7 @@
       <c r="J26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -15704,7 +16928,7 @@
       <c r="J27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -15715,7 +16939,7 @@
       <c r="J28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -15726,7 +16950,7 @@
       <c r="J29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -15737,7 +16961,7 @@
       <c r="J30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -15748,7 +16972,7 @@
       <c r="J31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -15759,7 +16983,7 @@
       <c r="J32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:13">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -15770,7 +16994,7 @@
       <c r="J33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:13">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -15781,7 +17005,7 @@
       <c r="J34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:13">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -15792,7 +17016,7 @@
       <c r="J35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -15803,7 +17027,7 @@
       <c r="J36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -15814,7 +17038,7 @@
       <c r="J37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:13">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -15825,7 +17049,7 @@
       <c r="J38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:13">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -15836,7 +17060,7 @@
       <c r="J39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:13">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -15847,7 +17071,7 @@
       <c r="J40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:13">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -15858,7 +17082,7 @@
       <c r="J41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:13">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -15869,7 +17093,7 @@
       <c r="J42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:13">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -15880,7 +17104,7 @@
       <c r="J43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:13">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -15891,7 +17115,7 @@
       <c r="J44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:13">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -15902,7 +17126,7 @@
       <c r="J45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:13">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -15913,7 +17137,7 @@
       <c r="J46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:13">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -15924,7 +17148,7 @@
       <c r="J47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:13">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -15935,7 +17159,7 @@
       <c r="J48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -15946,7 +17170,7 @@
       <c r="J49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -15957,7 +17181,7 @@
       <c r="J50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -15968,7 +17192,7 @@
       <c r="J51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -15979,7 +17203,7 @@
       <c r="J52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -15990,7 +17214,7 @@
       <c r="J53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -16001,7 +17225,7 @@
       <c r="J54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -16012,7 +17236,7 @@
       <c r="J55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -16023,7 +17247,7 @@
       <c r="J56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:13">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -16034,7 +17258,7 @@
       <c r="J57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -16045,7 +17269,7 @@
       <c r="J58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -16056,7 +17280,7 @@
       <c r="J59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -16067,7 +17291,7 @@
       <c r="J60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
